--- a/teaching/traditional_assets/database/data/philippines/philippines_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/philippines/philippines_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.104</v>
+        <v>0.0978</v>
       </c>
       <c r="E2">
-        <v>0.121</v>
+        <v>0.04295</v>
       </c>
       <c r="F2">
-        <v>0.1295</v>
+        <v>0.05775</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.000829079758058521</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.0006338984851196332</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2855.36</v>
+        <v>2627.4</v>
       </c>
       <c r="L2">
-        <v>0.2767250736548302</v>
+        <v>0.247184668792865</v>
       </c>
       <c r="M2">
-        <v>471.9849</v>
+        <v>565.2855000000001</v>
       </c>
       <c r="N2">
-        <v>0.01239241360478489</v>
+        <v>0.01755136226034309</v>
       </c>
       <c r="O2">
-        <v>0.1652978608651799</v>
+        <v>0.2151501484357159</v>
       </c>
       <c r="P2">
-        <v>471.4069</v>
+        <v>564.8935</v>
       </c>
       <c r="Q2">
-        <v>0.01237723766364023</v>
+        <v>0.01753919118217806</v>
       </c>
       <c r="R2">
-        <v>0.1650954345511599</v>
+        <v>0.2150009515109995</v>
       </c>
       <c r="S2">
-        <v>0.578000000000003</v>
+        <v>0.3919999999999959</v>
       </c>
       <c r="T2">
-        <v>0.001224615448502702</v>
+        <v>0.0006934549002229774</v>
       </c>
       <c r="U2">
-        <v>10399.1</v>
+        <v>13760.4</v>
       </c>
       <c r="V2">
-        <v>0.2730382864314483</v>
+        <v>0.4272421019948769</v>
       </c>
       <c r="W2">
-        <v>0.1007160647571607</v>
+        <v>0.08590381907651216</v>
       </c>
       <c r="X2">
-        <v>0.07126580655254142</v>
+        <v>0.05440972764337959</v>
       </c>
       <c r="Y2">
-        <v>0.02945025820461925</v>
+        <v>0.03149409143313257</v>
       </c>
       <c r="Z2">
-        <v>0.2919694820302304</v>
+        <v>0.2275834391248504</v>
       </c>
       <c r="AA2">
-        <v>0.0007809081481597174</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04950063490582969</v>
+        <v>0.04393089151593527</v>
       </c>
       <c r="AC2">
-        <v>-0.04939791226626584</v>
+        <v>-0.04393089151593527</v>
       </c>
       <c r="AD2">
-        <v>27722.8</v>
+        <v>21107.3</v>
       </c>
       <c r="AE2">
-        <v>784.5438828777552</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>28507.34388287775</v>
+        <v>21107.3</v>
       </c>
       <c r="AG2">
-        <v>18108.24388287775</v>
+        <v>7346.9</v>
       </c>
       <c r="AH2">
-        <v>0.4280771226436913</v>
+        <v>0.3958994500588954</v>
       </c>
       <c r="AI2">
-        <v>0.4837686017030958</v>
+        <v>0.3796707180849629</v>
       </c>
       <c r="AJ2">
-        <v>0.3222403094600505</v>
+        <v>0.1857416621159719</v>
       </c>
       <c r="AK2">
-        <v>0.3731462441276103</v>
+        <v>0.1756232475085637</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>186.8692451838171</v>
-      </c>
-      <c r="AP2">
-        <v>122.0610423910225</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>East West Banking Corporation (PSE:EW)</t>
+          <t>Philippine Trust Company (PSE:PTC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.171</v>
+        <v>0.049</v>
       </c>
       <c r="E3">
-        <v>0.245</v>
-      </c>
-      <c r="F3">
-        <v>0.08</v>
+        <v>-0.0152</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.006159742175844521</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.004874677744166248</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>113.8</v>
+        <v>23.5</v>
       </c>
       <c r="L3">
-        <v>0.2416135881104034</v>
+        <v>0.2713625866050808</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -770,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>302.4</v>
+        <v>64.2</v>
       </c>
       <c r="V3">
-        <v>0.5662921348314607</v>
+        <v>0.02570158933504144</v>
       </c>
       <c r="W3">
-        <v>0.1476388168137001</v>
+        <v>0.04739814441306978</v>
       </c>
       <c r="X3">
-        <v>0.07583674953015726</v>
+        <v>0.04075930281513492</v>
       </c>
       <c r="Y3">
-        <v>0.0718020672835428</v>
+        <v>0.006638841597934868</v>
       </c>
       <c r="Z3">
-        <v>0.5357789989592817</v>
+        <v>0.2014890646812471</v>
       </c>
       <c r="AA3">
-        <v>0.002611749962018482</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04948335588561599</v>
+        <v>0.04075930281513492</v>
       </c>
       <c r="AC3">
-        <v>-0.04687160592359751</v>
+        <v>-0.04075930281513492</v>
       </c>
       <c r="AD3">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>64.49380717588616</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>756.4938071758861</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>454.0938071758861</v>
+        <v>-64.2</v>
       </c>
       <c r="AH3">
-        <v>0.5862049108405994</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.4532090904745208</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.4595654824249444</v>
+        <v>-0.02637958663762995</v>
       </c>
       <c r="AK3">
-        <v>0.3322328538451235</v>
+        <v>-0.1315304240934235</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>43.79746835443038</v>
-      </c>
-      <c r="AP3">
-        <v>28.74011437822064</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Philippine Trust Company (PSE:PTC)</t>
+          <t>Philippine Bank of Communications (PSE:PBC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,10 +835,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0211</v>
-      </c>
-      <c r="E4">
-        <v>-0.139</v>
+        <v>0.161</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -862,16 +844,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002951616025212991</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001475808012606495</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.26</v>
+        <v>39.4</v>
       </c>
       <c r="L4">
-        <v>0.1092495636998255</v>
+        <v>0.366852886405959</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -895,67 +877,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>66</v>
+        <v>77.2</v>
       </c>
       <c r="V4">
-        <v>0.02579636505765097</v>
+        <v>0.3665716999050332</v>
       </c>
       <c r="W4">
-        <v>0.01644771413557541</v>
+        <v>0.1841121495327103</v>
       </c>
       <c r="X4">
-        <v>0.04766323112777242</v>
+        <v>0.04578890740101142</v>
       </c>
       <c r="Y4">
-        <v>-0.03121551699219702</v>
+        <v>0.1383232421316988</v>
       </c>
       <c r="Z4">
-        <v>0.1797509675461994</v>
+        <v>0.3062446535500428</v>
       </c>
       <c r="AA4">
-        <v>0.0002652779181784511</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04764665824234464</v>
+        <v>0.04196368655127964</v>
       </c>
       <c r="AC4">
-        <v>-0.04738138032416619</v>
+        <v>-0.04196368655127964</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="AE4">
-        <v>3.374362008776478</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.374362008776478</v>
+        <v>48.1</v>
       </c>
       <c r="AG4">
-        <v>-62.62563799122352</v>
+        <v>-29.1</v>
       </c>
       <c r="AH4">
-        <v>0.001317145781548251</v>
+        <v>0.185929648241206</v>
       </c>
       <c r="AI4">
-        <v>0.006759886455701324</v>
+        <v>0.1542160949022122</v>
       </c>
       <c r="AJ4">
-        <v>-0.02509166284348543</v>
+        <v>-0.1603305785123967</v>
       </c>
       <c r="AK4">
-        <v>-0.1445737409314974</v>
+        <v>-0.123988069876438</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>-74.20099288059659</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +942,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Metropolitan Bank &amp; Trust Company (PSE:MBT)</t>
+          <t>BDO Unibank, Inc. (PSE:BDO)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,13 +951,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.08259999999999999</v>
+        <v>0.138</v>
       </c>
       <c r="E5">
-        <v>0.125</v>
+        <v>0.0394</v>
       </c>
       <c r="F5">
-        <v>0.135</v>
+        <v>0.0552</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -990,103 +966,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004734497570835596</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003553052347805951</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>517.6</v>
+        <v>591.8</v>
       </c>
       <c r="L5">
-        <v>0.2884851187158622</v>
+        <v>0.18058098376663</v>
       </c>
       <c r="M5">
-        <v>76.896</v>
+        <v>108.4</v>
       </c>
       <c r="N5">
-        <v>0.01310608126533951</v>
+        <v>0.01112171299003765</v>
       </c>
       <c r="O5">
-        <v>0.1485625965996909</v>
+        <v>0.1831699898614397</v>
       </c>
       <c r="P5">
-        <v>76.8</v>
+        <v>108.4</v>
       </c>
       <c r="Q5">
-        <v>0.01308971911644396</v>
+        <v>0.01112171299003765</v>
       </c>
       <c r="R5">
-        <v>0.1483771251931994</v>
+        <v>0.1831699898614397</v>
       </c>
       <c r="S5">
-        <v>0.09600000000000364</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001248439450686689</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>2382.1</v>
+        <v>3976.8</v>
       </c>
       <c r="V5">
-        <v>0.4060028633760567</v>
+        <v>0.4080150204684662</v>
       </c>
       <c r="W5">
-        <v>0.1007160647571607</v>
+        <v>0.08590381907651216</v>
       </c>
       <c r="X5">
-        <v>0.07126580655254142</v>
+        <v>0.04990098559845871</v>
       </c>
       <c r="Y5">
-        <v>0.02945025820461925</v>
+        <v>0.03600283347805346</v>
       </c>
       <c r="Z5">
-        <v>0.2197851513901665</v>
+        <v>0.4497262285408461</v>
       </c>
       <c r="AA5">
-        <v>0.0007809081481597174</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04934651159590564</v>
+        <v>0.04265950760260769</v>
       </c>
       <c r="AC5">
-        <v>-0.04856560344774592</v>
+        <v>-0.04265950760260769</v>
       </c>
       <c r="AD5">
-        <v>6866.5</v>
+        <v>4046.1</v>
       </c>
       <c r="AE5">
-        <v>98.02682229203388</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>6964.526822292034</v>
+        <v>4046.1</v>
       </c>
       <c r="AG5">
-        <v>4582.426822292035</v>
+        <v>69.29999999999973</v>
       </c>
       <c r="AH5">
-        <v>0.5427583456805554</v>
+        <v>0.2933487036714807</v>
       </c>
       <c r="AI5">
-        <v>0.5352253226810114</v>
+        <v>0.3413969421850214</v>
       </c>
       <c r="AJ5">
-        <v>0.438525403846615</v>
+        <v>0.00705990220048897</v>
       </c>
       <c r="AK5">
-        <v>0.4310751688461145</v>
+        <v>0.008800223497739592</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>244.3594306049822</v>
-      </c>
-      <c r="AP5">
-        <v>163.075687626051</v>
       </c>
     </row>
     <row r="6">
@@ -1097,7 +1067,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Union Bank of the Philippines (PSE:UBP)</t>
+          <t>East West Banking Corporation (PSE:EW)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1106,10 +1076,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.098</v>
+        <v>0.15</v>
       </c>
       <c r="E6">
-        <v>0.049</v>
+        <v>0.341</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1118,103 +1088,94 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0052233722396566</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004714080902168468</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>188.2</v>
+        <v>155.2</v>
       </c>
       <c r="L6">
-        <v>0.3370947519254881</v>
+        <v>0.3191445609705942</v>
       </c>
       <c r="M6">
-        <v>44.6</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.03225573153974109</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.2369819341126461</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>44.6</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.03225573153974109</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.2369819341126461</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>666.9</v>
+        <v>662.1</v>
       </c>
       <c r="V6">
-        <v>0.4823172054675634</v>
+        <v>1.309015421115065</v>
       </c>
       <c r="W6">
-        <v>0.1142128899138245</v>
+        <v>0.1700449216610058</v>
       </c>
       <c r="X6">
-        <v>0.08706895451809879</v>
+        <v>0.05128243338708563</v>
       </c>
       <c r="Y6">
-        <v>0.0271439353957257</v>
+        <v>0.1187624882739202</v>
       </c>
       <c r="Z6">
-        <v>0.2252918483028062</v>
+        <v>0.373416263533748</v>
       </c>
       <c r="AA6">
-        <v>0.001062043999498494</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04973006755773174</v>
+        <v>0.04285380919699191</v>
       </c>
       <c r="AC6">
-        <v>-0.04866802355823324</v>
+        <v>-0.04285380919699191</v>
       </c>
       <c r="AD6">
-        <v>2713.9</v>
+        <v>241.7</v>
       </c>
       <c r="AE6">
-        <v>25.11895639299861</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>2739.018956392999</v>
+        <v>241.7</v>
       </c>
       <c r="AG6">
-        <v>2072.118956392999</v>
+        <v>-420.4</v>
       </c>
       <c r="AH6">
-        <v>0.6645331681687416</v>
+        <v>0.3233444816053512</v>
       </c>
       <c r="AI6">
-        <v>0.5940546327585654</v>
+        <v>0.1752719361856418</v>
       </c>
       <c r="AJ6">
-        <v>0.5997764231780159</v>
+        <v>-4.922716627634662</v>
       </c>
       <c r="AK6">
-        <v>0.5254092490817962</v>
+        <v>-0.586413725763705</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>341.8010075566751</v>
-      </c>
-      <c r="AP6">
-        <v>260.9721607547858</v>
       </c>
     </row>
     <row r="7">
@@ -1225,7 +1186,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Philippine Bank of Communications (PSE:PBC)</t>
+          <t>Bank of the Philippine Islands (PSE:BPI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1234,10 +1195,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0458</v>
+        <v>0.05889999999999999</v>
       </c>
       <c r="E7">
-        <v>0.0595</v>
+        <v>0.04650000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.09</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1246,100 +1210,97 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01521338909488475</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01267782424573729</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.3</v>
+        <v>493.6</v>
       </c>
       <c r="L7">
-        <v>0.1819196428571429</v>
+        <v>0.3034737165693207</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>167.4</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.02190411389092432</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.3391410048622366</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>167.4</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.02190411389092432</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.3391410048622366</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>44.4</v>
+        <v>554.6</v>
       </c>
       <c r="V7">
-        <v>0.2293388429752066</v>
+        <v>0.07256882654663457</v>
       </c>
       <c r="W7">
-        <v>0.08684070324986681</v>
+        <v>0.09554781262098336</v>
       </c>
       <c r="X7">
-        <v>0.06698603198862151</v>
+        <v>0.05038002721681772</v>
       </c>
       <c r="Y7">
-        <v>0.01985467126124531</v>
+        <v>0.04516778540416563</v>
       </c>
       <c r="Z7">
-        <v>0.1999087908620607</v>
+        <v>0.2115937504065358</v>
       </c>
       <c r="AA7">
-        <v>0.002534408515727059</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0512597072782017</v>
+        <v>0.04381425417482918</v>
       </c>
       <c r="AC7">
-        <v>-0.04872529876247464</v>
+        <v>-0.04381425417482918</v>
       </c>
       <c r="AD7">
-        <v>181.1</v>
+        <v>3338.8</v>
       </c>
       <c r="AE7">
-        <v>7.084401685491631</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>188.1844016854916</v>
+        <v>3338.8</v>
       </c>
       <c r="AG7">
-        <v>143.7844016854916</v>
+        <v>2784.2</v>
       </c>
       <c r="AH7">
-        <v>0.4929075175798177</v>
+        <v>0.3040469165482825</v>
       </c>
       <c r="AI7">
-        <v>0.4679057688384741</v>
+        <v>0.3606784055309496</v>
       </c>
       <c r="AJ7">
-        <v>0.4261738271454732</v>
+        <v>0.2670285615636929</v>
       </c>
       <c r="AK7">
-        <v>0.4018744277507226</v>
+        <v>0.3199347306490164</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>65.14388489208633</v>
-      </c>
-      <c r="AP7">
-        <v>51.72100780053655</v>
       </c>
     </row>
     <row r="8">
@@ -1350,7 +1311,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bank of the Philippine Islands (PSE:BPI)</t>
+          <t>Metropolitan Bank &amp; Trust Company (PSE:MBT)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1359,13 +1320,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.104</v>
+        <v>0.04269999999999999</v>
       </c>
       <c r="E8">
-        <v>0.121</v>
+        <v>-0.0289</v>
       </c>
       <c r="F8">
-        <v>0.118</v>
+        <v>0.0603</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1374,103 +1335,97 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0004870040035134124</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0003697285214632967</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>541.9</v>
+        <v>361.3</v>
       </c>
       <c r="L8">
-        <v>0.3267607332368548</v>
+        <v>0.2068827301878149</v>
       </c>
       <c r="M8">
-        <v>156.4</v>
+        <v>93.092</v>
       </c>
       <c r="N8">
-        <v>0.02005899705014749</v>
+        <v>0.02027838891672294</v>
       </c>
       <c r="O8">
-        <v>0.2886141354493449</v>
+        <v>0.2576584555770827</v>
       </c>
       <c r="P8">
-        <v>156.4</v>
+        <v>92.7</v>
       </c>
       <c r="Q8">
-        <v>0.02005899705014749</v>
+        <v>0.02019299888905831</v>
       </c>
       <c r="R8">
-        <v>0.2886141354493449</v>
+        <v>0.2565734846388043</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.3919999999999959</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.004210888153654405</v>
       </c>
       <c r="U8">
-        <v>554.1</v>
+        <v>2706.8</v>
       </c>
       <c r="V8">
-        <v>0.07106579453636014</v>
+        <v>0.5896268542923738</v>
       </c>
       <c r="W8">
-        <v>0.1189655550920946</v>
+        <v>0.06149159234801552</v>
       </c>
       <c r="X8">
-        <v>0.05550324021210715</v>
+        <v>0.06188521797371593</v>
       </c>
       <c r="Y8">
-        <v>0.06346231487998741</v>
+        <v>-0.0003936256257004167</v>
       </c>
       <c r="Z8">
-        <v>0.2778326085239353</v>
+        <v>0.1702194021267678</v>
       </c>
       <c r="AA8">
-        <v>0.0001027226395638455</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04950063490582969</v>
+        <v>0.04393089151593527</v>
       </c>
       <c r="AC8">
-        <v>-0.04939791226626584</v>
+        <v>-0.04393089151593527</v>
       </c>
       <c r="AD8">
-        <v>3075</v>
+        <v>4404</v>
       </c>
       <c r="AE8">
-        <v>6.161762802866785</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>3081.161762802867</v>
+        <v>4404</v>
       </c>
       <c r="AG8">
-        <v>2527.061762802867</v>
+        <v>1697.2</v>
       </c>
       <c r="AH8">
-        <v>0.283242870439626</v>
+        <v>0.4896216660922543</v>
       </c>
       <c r="AI8">
-        <v>0.3706945388085785</v>
+        <v>0.3938683885738816</v>
       </c>
       <c r="AJ8">
-        <v>0.2447739872990452</v>
+        <v>0.2699152340208973</v>
       </c>
       <c r="AK8">
-        <v>0.3257462448666177</v>
+        <v>0.2002690392466901</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>1507.35294117647</v>
-      </c>
-      <c r="AP8">
-        <v>1238.755766079837</v>
       </c>
     </row>
     <row r="9">
@@ -1490,10 +1445,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.136</v>
+        <v>0.132</v>
       </c>
       <c r="E9">
-        <v>0.153</v>
+        <v>0.164</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1502,34 +1457,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.003668000894268698</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.003115097288237706</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>178.5</v>
+        <v>239.5</v>
       </c>
       <c r="L9">
-        <v>0.2943116240725474</v>
+        <v>0.3377520801015371</v>
       </c>
       <c r="M9">
-        <v>45.6</v>
+        <v>55.4</v>
       </c>
       <c r="N9">
-        <v>0.03443588581785229</v>
+        <v>0.03971610868162592</v>
       </c>
       <c r="O9">
-        <v>0.2554621848739496</v>
+        <v>0.2313152400835073</v>
       </c>
       <c r="P9">
-        <v>45.6</v>
+        <v>55.4</v>
       </c>
       <c r="Q9">
-        <v>0.03443588581785229</v>
+        <v>0.03971610868162592</v>
       </c>
       <c r="R9">
-        <v>0.2554621848739496</v>
+        <v>0.2313152400835073</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1538,67 +1493,61 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>736.7</v>
+        <v>997.7</v>
       </c>
       <c r="V9">
-        <v>0.556335900921311</v>
+        <v>0.7152484049035773</v>
       </c>
       <c r="W9">
-        <v>0.1126040878122634</v>
+        <v>0.133754048922149</v>
       </c>
       <c r="X9">
-        <v>0.06755072704899037</v>
+        <v>0.06208460095111525</v>
       </c>
       <c r="Y9">
-        <v>0.04505336076327306</v>
+        <v>0.07166944797103376</v>
       </c>
       <c r="Z9">
-        <v>0.3832002937271708</v>
+        <v>0.3085323935082452</v>
       </c>
       <c r="AA9">
-        <v>-0.001193706195841402</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04921214606557024</v>
+        <v>0.04394609837070215</v>
       </c>
       <c r="AC9">
-        <v>-0.05040585226141164</v>
+        <v>-0.04394609837070215</v>
       </c>
       <c r="AD9">
-        <v>1260.6</v>
+        <v>1350.8</v>
       </c>
       <c r="AE9">
-        <v>64.12321271186983</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1324.72321271187</v>
+        <v>1350.8</v>
       </c>
       <c r="AG9">
-        <v>588.0232127118697</v>
+        <v>353.0999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.5000987595090259</v>
+        <v>0.4919692610263321</v>
       </c>
       <c r="AI9">
-        <v>0.4252008803230133</v>
+        <v>0.393750364367749</v>
       </c>
       <c r="AJ9">
-        <v>0.3075076219150949</v>
+        <v>0.2020022883295194</v>
       </c>
       <c r="AK9">
-        <v>0.2471907998751704</v>
+        <v>0.1451354350774795</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>118.9245283018868</v>
-      </c>
-      <c r="AP9">
-        <v>55.47388799168583</v>
       </c>
     </row>
     <row r="10">
@@ -1609,7 +1558,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Security Bank Corporation (PSE:SECB)</t>
+          <t>Union Bank of the Philippines (PSE:UBP)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1618,13 +1567,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.133</v>
+        <v>0.138</v>
       </c>
       <c r="E10">
-        <v>0.0607</v>
-      </c>
-      <c r="F10">
-        <v>0.124</v>
+        <v>0.181</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1633,34 +1579,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.006701266036147101</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.005338344698562849</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>188.3</v>
+        <v>287</v>
       </c>
       <c r="L10">
-        <v>0.339585211902615</v>
+        <v>0.3899986411197174</v>
       </c>
       <c r="M10">
-        <v>29.3865</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="N10">
-        <v>0.01016165842525675</v>
+        <v>0.04819871689422603</v>
       </c>
       <c r="O10">
-        <v>0.1560621348911312</v>
+        <v>0.3062717770034843</v>
       </c>
       <c r="P10">
-        <v>29.3865</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.01016165842525675</v>
+        <v>0.04819871689422603</v>
       </c>
       <c r="R10">
-        <v>0.1560621348911312</v>
+        <v>0.3062717770034843</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1669,67 +1615,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>292.8</v>
+        <v>834.4</v>
       </c>
       <c r="V10">
-        <v>0.1012483142570628</v>
+        <v>0.4575313922245983</v>
       </c>
       <c r="W10">
-        <v>0.09308418606950418</v>
+        <v>0.1541767391888262</v>
       </c>
       <c r="X10">
-        <v>0.07179861966003132</v>
+        <v>0.06307061918738217</v>
       </c>
       <c r="Y10">
-        <v>0.02128556640947286</v>
+        <v>0.09110612000144404</v>
       </c>
       <c r="Z10">
-        <v>0.1313850049962546</v>
+        <v>0.2041218240319539</v>
       </c>
       <c r="AA10">
-        <v>0.0007013784448924092</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.05358573277402662</v>
+        <v>0.04401929072773359</v>
       </c>
       <c r="AC10">
-        <v>-0.05288435432913421</v>
+        <v>-0.04401929072773359</v>
       </c>
       <c r="AD10">
-        <v>3484</v>
+        <v>1847.7</v>
       </c>
       <c r="AE10">
-        <v>26.17073991478216</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>3510.170739914782</v>
+        <v>1847.7</v>
       </c>
       <c r="AG10">
-        <v>3217.370739914782</v>
+        <v>1013.3</v>
       </c>
       <c r="AH10">
-        <v>0.5482867782184965</v>
+        <v>0.5032685079261318</v>
       </c>
       <c r="AI10">
-        <v>0.6070574862024731</v>
+        <v>0.4652046930862581</v>
       </c>
       <c r="AJ10">
-        <v>0.5266374460856945</v>
+        <v>0.3571730701445189</v>
       </c>
       <c r="AK10">
-        <v>0.5860985315980987</v>
+        <v>0.3229744374322688</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>389.2737430167598</v>
-      </c>
-      <c r="AP10">
-        <v>359.4827642362885</v>
       </c>
     </row>
     <row r="11">
@@ -1740,7 +1680,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BDO Unibank, Inc. (PSE:BDO)</t>
+          <t>Rizal Commercial Banking Corporation (PSE:RCB)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1749,13 +1689,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.183</v>
+        <v>0.0668</v>
       </c>
       <c r="E11">
-        <v>0.154</v>
-      </c>
-      <c r="F11">
-        <v>0.171</v>
+        <v>0.0265</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1764,34 +1701,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.01175534251878539</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.009067972587952357</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>835</v>
+        <v>100.5</v>
       </c>
       <c r="L11">
-        <v>0.2571525361091436</v>
+        <v>0.1735751295336788</v>
       </c>
       <c r="M11">
-        <v>101.2</v>
+        <v>22.2</v>
       </c>
       <c r="N11">
-        <v>0.007428122637423939</v>
+        <v>0.02918364664125148</v>
       </c>
       <c r="O11">
-        <v>0.1211976047904192</v>
+        <v>0.2208955223880597</v>
       </c>
       <c r="P11">
-        <v>101.2</v>
+        <v>22.2</v>
       </c>
       <c r="Q11">
-        <v>0.007428122637423939</v>
+        <v>0.02918364664125148</v>
       </c>
       <c r="R11">
-        <v>0.1211976047904192</v>
+        <v>0.2208955223880597</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1800,67 +1737,61 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>3141.6</v>
+        <v>1791.3</v>
       </c>
       <c r="V11">
-        <v>0.2305947636139432</v>
+        <v>2.354804785066386</v>
       </c>
       <c r="W11">
-        <v>0.147385886256928</v>
+        <v>0.06154694102516994</v>
       </c>
       <c r="X11">
-        <v>0.05321130003424258</v>
+        <v>0.1065922466462494</v>
       </c>
       <c r="Y11">
-        <v>0.09417458622268544</v>
+        <v>-0.04504530562107948</v>
       </c>
       <c r="Z11">
-        <v>0.5270364570671815</v>
+        <v>0.1778890377954294</v>
       </c>
       <c r="AA11">
-        <v>-0.004779152145536731</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04832604288172009</v>
+        <v>0.04561325749774438</v>
       </c>
       <c r="AC11">
-        <v>-0.05310519502725682</v>
+        <v>-0.04561325749774438</v>
       </c>
       <c r="AD11">
-        <v>3440.3</v>
+        <v>2274.1</v>
       </c>
       <c r="AE11">
-        <v>374.8538634637401</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>3815.15386346374</v>
+        <v>2274.1</v>
       </c>
       <c r="AG11">
-        <v>673.5538634637405</v>
+        <v>482.8</v>
       </c>
       <c r="AH11">
-        <v>0.2187706909637342</v>
+        <v>0.7493409779886647</v>
       </c>
       <c r="AI11">
-        <v>0.3520796326352173</v>
+        <v>0.5257913111835564</v>
       </c>
       <c r="AJ11">
-        <v>0.04711005679024892</v>
+        <v>0.3882589465219139</v>
       </c>
       <c r="AK11">
-        <v>0.08753757906874148</v>
+        <v>0.1905438471860446</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>93.48641304347828</v>
-      </c>
-      <c r="AP11">
-        <v>18.30309411586251</v>
       </c>
     </row>
     <row r="12">
@@ -1871,7 +1802,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Philippine National Bank (PSE:PNB)</t>
+          <t>Security Bank Corporation (PSE:SECB)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1880,13 +1811,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.118</v>
+        <v>0.0978</v>
       </c>
       <c r="E12">
-        <v>0.241</v>
+        <v>0.0596</v>
       </c>
       <c r="F12">
-        <v>0.15</v>
+        <v>-0.0432</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1895,100 +1826,97 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.008794621017964629</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.006365781639357068</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>161.1</v>
+        <v>187</v>
       </c>
       <c r="L12">
-        <v>0.2231301939058172</v>
+        <v>0.3419897585954645</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>30.8935</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.01469789238308197</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>0.1652058823529412</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>30.8935</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.01469789238308197</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0.1652058823529412</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>1132.4</v>
+        <v>499.6</v>
       </c>
       <c r="V12">
-        <v>1.093050193050193</v>
+        <v>0.2376897093106237</v>
       </c>
       <c r="W12">
-        <v>0.07048477423871194</v>
+        <v>0.08237885462555065</v>
       </c>
       <c r="X12">
-        <v>0.1118959278343297</v>
+        <v>0.05440972764337959</v>
       </c>
       <c r="Y12">
-        <v>-0.0414111535956178</v>
+        <v>0.02796912698217106</v>
       </c>
       <c r="Z12">
-        <v>0.3111329464025961</v>
+        <v>0.1003868234032749</v>
       </c>
       <c r="AA12">
-        <v>0.001980604397608713</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.05527928770429288</v>
+        <v>0.04623816853725353</v>
       </c>
       <c r="AC12">
-        <v>-0.05329868330668417</v>
+        <v>-0.04623816853725353</v>
       </c>
       <c r="AD12">
-        <v>3299.6</v>
+        <v>1302.9</v>
       </c>
       <c r="AE12">
-        <v>44.75141812514769</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>3344.351418125148</v>
+        <v>1302.9</v>
       </c>
       <c r="AG12">
-        <v>2211.951418125147</v>
+        <v>803.3000000000001</v>
       </c>
       <c r="AH12">
-        <v>0.7634892954676631</v>
+        <v>0.3826656484962406</v>
       </c>
       <c r="AI12">
-        <v>0.5329769894574493</v>
+        <v>0.3375213719496399</v>
       </c>
       <c r="AJ12">
-        <v>0.6810297117688964</v>
+        <v>0.2765041993666529</v>
       </c>
       <c r="AK12">
-        <v>0.4301355984285776</v>
+        <v>0.239034696185205</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>215.6601307189542</v>
-      </c>
-      <c r="AP12">
-        <v>144.5719881127547</v>
       </c>
     </row>
     <row r="13">
@@ -1999,7 +1927,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rizal Commercial Banking Corporation (PSE:RCB)</t>
+          <t>Philippine National Bank (PSE:PNB)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2008,10 +1936,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.07969999999999999</v>
+        <v>0.08259999999999999</v>
       </c>
       <c r="E13">
-        <v>0.0513</v>
+        <v>0.0272</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2020,103 +1948,94 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.009156555387252239</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.006706558134987451</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>108.4</v>
+        <v>148.6</v>
       </c>
       <c r="L13">
-        <v>0.1937444146559428</v>
+        <v>0.2040928443895069</v>
       </c>
       <c r="M13">
-        <v>17.9024</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.02039927073837739</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.1651512915129151</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>17.4204</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.01985004557885141</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.1607047970479704</v>
+        <v>-0</v>
       </c>
       <c r="S13">
-        <v>0.4819999999999993</v>
-      </c>
-      <c r="T13">
-        <v>0.02692376441147552</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1079.7</v>
+        <v>1595.7</v>
       </c>
       <c r="V13">
-        <v>1.230287146763902</v>
+        <v>1.711757133662304</v>
       </c>
       <c r="W13">
-        <v>0.0699987085109131</v>
+        <v>0.05170314185310184</v>
       </c>
       <c r="X13">
-        <v>0.1106976336597145</v>
+        <v>0.09398464997341245</v>
       </c>
       <c r="Y13">
-        <v>-0.04069892514880138</v>
+        <v>-0.04228150812031061</v>
       </c>
       <c r="Z13">
-        <v>0.1998749282151448</v>
+        <v>0.1522170886208266</v>
       </c>
       <c r="AA13">
-        <v>0.001340472825801312</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05524509503758551</v>
+        <v>0.0486091359267484</v>
       </c>
       <c r="AC13">
-        <v>-0.0539046222117842</v>
+        <v>-0.0486091359267484</v>
       </c>
       <c r="AD13">
-        <v>2709.8</v>
+        <v>2253.1</v>
       </c>
       <c r="AE13">
-        <v>70.38453630416186</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>2780.184536304162</v>
+        <v>2253.1</v>
       </c>
       <c r="AG13">
-        <v>1700.484536304162</v>
+        <v>657.3999999999999</v>
       </c>
       <c r="AH13">
-        <v>0.7600733473255016</v>
+        <v>0.7073431073996169</v>
       </c>
       <c r="AI13">
-        <v>0.6299295972230322</v>
+        <v>0.4116905423183745</v>
       </c>
       <c r="AJ13">
-        <v>0.6595922330545095</v>
+        <v>0.4135631605435329</v>
       </c>
       <c r="AK13">
-        <v>0.5100763165064415</v>
+        <v>0.1695597224729824</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>141.1354166666667</v>
-      </c>
-      <c r="AP13">
-        <v>88.56690293250844</v>
       </c>
     </row>
   </sheetData>
